--- a/data/trans_orig/IP07C17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C17-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1B3D499-074B-484F-83A1-65E8624D2DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BF5058E-F0EE-4E11-80B4-3874DB1B2A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DFE8FE8B-2404-42E8-A66B-D7D121FA9069}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6C8DD045-DC57-4237-82B9-75A979BB6124}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,219 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
     <t>31,83%</t>
   </si>
   <si>
@@ -118,33 +310,6 @@
     <t>28,65%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
     <t>36,62%</t>
   </si>
   <si>
@@ -172,30 +337,6 @@
     <t>43,91%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
     <t>20,07%</t>
   </si>
   <si>
@@ -223,145 +364,49 @@
     <t>27,41%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
   </si>
   <si>
     <t>30,03%</t>
@@ -391,30 +436,6 @@
     <t>27,1%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
     <t>37,44%</t>
   </si>
   <si>
@@ -442,27 +463,6 @@
     <t>44,3%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
     <t>21,08%</t>
   </si>
   <si>
@@ -493,6 +493,189 @@
     <t>Menores según frecuencia de gustarle ir al colegio en 2012 (Tasa respuesta: 43,5%)</t>
   </si>
   <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
     <t>21,47%</t>
   </si>
   <si>
@@ -520,33 +703,6 @@
     <t>23,99%</t>
   </si>
   <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
     <t>35,46%</t>
   </si>
   <si>
@@ -574,33 +730,6 @@
     <t>39,27%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
     <t>31,96%</t>
   </si>
   <si>
@@ -625,133 +754,46 @@
     <t>37,28%</t>
   </si>
   <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
   <si>
     <t>20,37%</t>
@@ -781,30 +823,6 @@
     <t>22,13%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
     <t>35,37%</t>
   </si>
   <si>
@@ -832,24 +850,6 @@
     <t>39,05%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
     <t>33,22%</t>
   </si>
   <si>
@@ -880,6 +880,174 @@
     <t>Menores según frecuencia de gustarle ir al colegio en 2015 (Tasa respuesta: 45,67%)</t>
   </si>
   <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
     <t>23,25%</t>
   </si>
   <si>
@@ -907,33 +1075,6 @@
     <t>23,28%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
     <t>42,74%</t>
   </si>
   <si>
@@ -961,21 +1102,6 @@
     <t>45,4%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
     <t>25,35%</t>
   </si>
   <si>
@@ -1003,130 +1129,49 @@
     <t>31,84%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
   </si>
   <si>
     <t>20,56%</t>
@@ -1156,27 +1201,6 @@
     <t>21,41%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
     <t>36,35%</t>
   </si>
   <si>
@@ -1196,30 +1220,6 @@
   </si>
   <si>
     <t>36,46%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
   </si>
   <si>
     <t>30,15%</t>
@@ -1635,7 +1635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46418564-3DD1-4351-89AB-D0D088DE22E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C5DD08-D3D8-4BE6-879F-1B6A3AF133F6}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2025,10 +2025,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>79520</v>
+        <v>3832</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -2040,10 +2040,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>45049</v>
+        <v>720</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -2055,10 +2055,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>124569</v>
+        <v>4552</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -2076,10 +2076,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>13572</v>
+        <v>2848</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -2091,10 +2091,10 @@
         <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>11104</v>
+        <v>1976</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
@@ -2106,10 +2106,10 @@
         <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>24677</v>
+        <v>4824</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -2127,10 +2127,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7">
-        <v>91477</v>
+        <v>13236</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>35</v>
@@ -2142,10 +2142,10 @@
         <v>37</v>
       </c>
       <c r="H12" s="7">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="I12" s="7">
-        <v>107270</v>
+        <v>7373</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>38</v>
@@ -2157,10 +2157,10 @@
         <v>40</v>
       </c>
       <c r="M12" s="7">
-        <v>297</v>
+        <v>32</v>
       </c>
       <c r="N12" s="7">
-        <v>198748</v>
+        <v>20608</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>41</v>
@@ -2178,10 +2178,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>15110</v>
+        <v>24171</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
@@ -2193,34 +2193,34 @@
         <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>10088</v>
+        <v>23756</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="N13" s="7">
-        <v>25198</v>
+        <v>47928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,49 +2229,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7">
-        <v>50135</v>
+        <v>14982</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I14" s="7">
-        <v>68253</v>
+        <v>15057</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="N14" s="7">
-        <v>118388</v>
+        <v>30039</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,81 +2280,81 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>375</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>249815</v>
+        <v>59069</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H15" s="7">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>241764</v>
+        <v>48882</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M15" s="7">
-        <v>734</v>
+        <v>163</v>
       </c>
       <c r="N15" s="7">
-        <v>491579</v>
+        <v>107951</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>13236</v>
+        <v>15110</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="7">
+        <v>15</v>
+      </c>
+      <c r="I16" s="7">
+        <v>10088</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="H16" s="7">
-        <v>11</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7373</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>68</v>
       </c>
       <c r="M16" s="7">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N16" s="7">
-        <v>20608</v>
+        <v>25198</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>69</v>
@@ -2384,10 +2384,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>2848</v>
+        <v>13572</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>72</v>
@@ -2399,10 +2399,10 @@
         <v>74</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I17" s="7">
-        <v>1976</v>
+        <v>11104</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>75</v>
@@ -2414,10 +2414,10 @@
         <v>77</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="N17" s="7">
-        <v>4824</v>
+        <v>24677</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>78</v>
@@ -2435,10 +2435,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="D18" s="7">
-        <v>24171</v>
+        <v>79520</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>81</v>
@@ -2450,10 +2450,10 @@
         <v>83</v>
       </c>
       <c r="H18" s="7">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I18" s="7">
-        <v>23756</v>
+        <v>45049</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>84</v>
@@ -2465,10 +2465,10 @@
         <v>86</v>
       </c>
       <c r="M18" s="7">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="N18" s="7">
-        <v>47928</v>
+        <v>124569</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>87</v>
@@ -2486,10 +2486,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="D19" s="7">
-        <v>3832</v>
+        <v>91477</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>90</v>
@@ -2501,10 +2501,10 @@
         <v>92</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="I19" s="7">
-        <v>720</v>
+        <v>107270</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>93</v>
@@ -2516,10 +2516,10 @@
         <v>95</v>
       </c>
       <c r="M19" s="7">
-        <v>7</v>
+        <v>297</v>
       </c>
       <c r="N19" s="7">
-        <v>4552</v>
+        <v>198748</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>96</v>
@@ -2537,10 +2537,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="D20" s="7">
-        <v>14982</v>
+        <v>50135</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>99</v>
@@ -2552,10 +2552,10 @@
         <v>101</v>
       </c>
       <c r="H20" s="7">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I20" s="7">
-        <v>15057</v>
+        <v>68253</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>102</v>
@@ -2567,10 +2567,10 @@
         <v>104</v>
       </c>
       <c r="M20" s="7">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="N20" s="7">
-        <v>30039</v>
+        <v>118388</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>105</v>
@@ -2588,49 +2588,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>90</v>
+        <v>375</v>
       </c>
       <c r="D21" s="7">
-        <v>59069</v>
+        <v>249815</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="I21" s="7">
-        <v>48882</v>
+        <v>241764</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>163</v>
+        <v>734</v>
       </c>
       <c r="N21" s="7">
-        <v>107951</v>
+        <v>491579</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,10 +2641,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="D22" s="7">
-        <v>92755</v>
+        <v>18943</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>108</v>
@@ -2656,34 +2656,34 @@
         <v>110</v>
       </c>
       <c r="H22" s="7">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I22" s="7">
-        <v>52422</v>
+        <v>10808</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>45</v>
+      </c>
+      <c r="N22" s="7">
+        <v>29751</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M22" s="7">
-        <v>218</v>
-      </c>
-      <c r="N22" s="7">
-        <v>145177</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2698,13 @@
         <v>16420</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -2713,13 +2713,13 @@
         <v>13080</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>44</v>
@@ -2728,13 +2728,13 @@
         <v>29500</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,49 +2743,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="D24" s="7">
-        <v>115648</v>
+        <v>92755</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>77</v>
+      </c>
+      <c r="I24" s="7">
+        <v>52422</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H24" s="7">
-        <v>196</v>
-      </c>
-      <c r="I24" s="7">
-        <v>131027</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>218</v>
+      </c>
+      <c r="N24" s="7">
+        <v>145177</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M24" s="7">
-        <v>369</v>
-      </c>
-      <c r="N24" s="7">
-        <v>246675</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,49 +2794,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="D25" s="7">
-        <v>18943</v>
+        <v>115648</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>196</v>
+      </c>
+      <c r="I25" s="7">
+        <v>131027</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H25" s="7">
-        <v>16</v>
-      </c>
-      <c r="I25" s="7">
-        <v>10808</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>369</v>
+      </c>
+      <c r="N25" s="7">
+        <v>246675</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="M25" s="7">
-        <v>45</v>
-      </c>
-      <c r="N25" s="7">
-        <v>29751</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2902,13 @@
         <v>308884</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>432</v>
@@ -2917,13 +2917,13 @@
         <v>290646</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>897</v>
@@ -2932,13 +2932,13 @@
         <v>599530</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2957,7 +2957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AC0668-BFDD-48F8-996D-B0D004571040}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDBB093-8AE3-46ED-9C51-B4D530CC92CA}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3347,10 +3347,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>55536</v>
+        <v>3315</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>151</v>
@@ -3362,34 +3362,34 @@
         <v>153</v>
       </c>
       <c r="H10" s="7">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>49076</v>
+        <v>712</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>154</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>6</v>
+      </c>
+      <c r="N10" s="7">
+        <v>4027</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="M10" s="7">
-        <v>150</v>
-      </c>
-      <c r="N10" s="7">
-        <v>104611</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,49 +3398,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>16433</v>
+        <v>3739</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1944</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H11" s="7">
-        <v>16</v>
-      </c>
-      <c r="I11" s="7">
-        <v>11374</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>8</v>
+      </c>
+      <c r="N11" s="7">
+        <v>5683</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="M11" s="7">
-        <v>40</v>
-      </c>
-      <c r="N11" s="7">
-        <v>27808</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,49 +3449,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>91733</v>
+        <v>10496</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>10</v>
+      </c>
+      <c r="I12" s="7">
+        <v>7269</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H12" s="7">
-        <v>126</v>
-      </c>
-      <c r="I12" s="7">
-        <v>87709</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>25</v>
+      </c>
+      <c r="N12" s="7">
+        <v>17766</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="M12" s="7">
-        <v>263</v>
-      </c>
-      <c r="N12" s="7">
-        <v>179441</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,49 +3500,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7">
-        <v>12316</v>
+        <v>22938</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>36</v>
+      </c>
+      <c r="I13" s="7">
+        <v>25841</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8167</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>68</v>
+      </c>
+      <c r="N13" s="7">
+        <v>48778</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="M13" s="7">
-        <v>31</v>
-      </c>
-      <c r="N13" s="7">
-        <v>20482</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,49 +3551,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7">
-        <v>82684</v>
+        <v>25032</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>47</v>
+      </c>
+      <c r="I14" s="7">
+        <v>32976</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H14" s="7">
-        <v>123</v>
-      </c>
-      <c r="I14" s="7">
-        <v>85872</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>81</v>
+      </c>
+      <c r="N14" s="7">
+        <v>58008</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="M14" s="7">
-        <v>241</v>
-      </c>
-      <c r="N14" s="7">
-        <v>168555</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,102 +3602,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>380</v>
+        <v>91</v>
       </c>
       <c r="D15" s="7">
-        <v>258702</v>
+        <v>65520</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H15" s="7">
-        <v>345</v>
+        <v>97</v>
       </c>
       <c r="I15" s="7">
-        <v>242197</v>
+        <v>68742</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M15" s="7">
-        <v>725</v>
+        <v>188</v>
       </c>
       <c r="N15" s="7">
-        <v>500898</v>
+        <v>134262</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D16" s="7">
-        <v>10496</v>
+        <v>12316</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7">
+        <v>8167</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H16" s="7">
-        <v>10</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7269</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>31</v>
+      </c>
+      <c r="N16" s="7">
+        <v>20482</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="M16" s="7">
-        <v>25</v>
-      </c>
-      <c r="N16" s="7">
-        <v>17766</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,49 +3706,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>3739</v>
+        <v>16433</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>16</v>
+      </c>
+      <c r="I17" s="7">
+        <v>11374</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1944</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>40</v>
+      </c>
+      <c r="N17" s="7">
+        <v>27808</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="M17" s="7">
-        <v>8</v>
-      </c>
-      <c r="N17" s="7">
-        <v>5683</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,49 +3757,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D18" s="7">
-        <v>22938</v>
+        <v>55536</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>68</v>
+      </c>
+      <c r="I18" s="7">
+        <v>49076</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H18" s="7">
-        <v>36</v>
-      </c>
-      <c r="I18" s="7">
-        <v>25841</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>150</v>
+      </c>
+      <c r="N18" s="7">
+        <v>104611</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="M18" s="7">
-        <v>68</v>
-      </c>
-      <c r="N18" s="7">
-        <v>48778</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,49 +3808,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="D19" s="7">
-        <v>3315</v>
+        <v>91733</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>126</v>
+      </c>
+      <c r="I19" s="7">
+        <v>87709</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>712</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>226</v>
       </c>
       <c r="M19" s="7">
-        <v>6</v>
+        <v>263</v>
       </c>
       <c r="N19" s="7">
-        <v>4027</v>
+        <v>179441</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>227</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,28 +3859,28 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="D20" s="7">
-        <v>25032</v>
+        <v>82684</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H20" s="7">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="I20" s="7">
-        <v>32976</v>
+        <v>85872</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>233</v>
@@ -3889,10 +3889,10 @@
         <v>234</v>
       </c>
       <c r="M20" s="7">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="N20" s="7">
-        <v>58008</v>
+        <v>168555</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>235</v>
@@ -3910,49 +3910,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>91</v>
+        <v>380</v>
       </c>
       <c r="D21" s="7">
-        <v>65520</v>
+        <v>258702</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>97</v>
+        <v>345</v>
       </c>
       <c r="I21" s="7">
-        <v>68742</v>
+        <v>242197</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>188</v>
+        <v>725</v>
       </c>
       <c r="N21" s="7">
-        <v>134262</v>
+        <v>500898</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,49 +3963,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7">
-        <v>66032</v>
+        <v>15631</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>13</v>
+      </c>
+      <c r="I22" s="7">
+        <v>8879</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H22" s="7">
-        <v>78</v>
-      </c>
-      <c r="I22" s="7">
-        <v>56345</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>37</v>
+      </c>
+      <c r="N22" s="7">
+        <v>24509</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="M22" s="7">
-        <v>175</v>
-      </c>
-      <c r="N22" s="7">
-        <v>122377</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4020,13 @@
         <v>20173</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -4035,13 +4035,13 @@
         <v>13318</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M23" s="7">
         <v>48</v>
@@ -4050,13 +4050,13 @@
         <v>33490</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,49 +4065,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="D24" s="7">
-        <v>114671</v>
+        <v>66032</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H24" s="7">
+        <v>78</v>
+      </c>
+      <c r="I24" s="7">
+        <v>56345</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H24" s="7">
-        <v>162</v>
-      </c>
-      <c r="I24" s="7">
-        <v>113549</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>175</v>
+      </c>
+      <c r="N24" s="7">
+        <v>122377</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="M24" s="7">
-        <v>331</v>
-      </c>
-      <c r="N24" s="7">
-        <v>228219</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,46 +4116,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="D25" s="7">
-        <v>15631</v>
+        <v>114671</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H25" s="7">
+        <v>162</v>
+      </c>
+      <c r="I25" s="7">
+        <v>113549</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="H25" s="7">
-        <v>13</v>
-      </c>
-      <c r="I25" s="7">
-        <v>8879</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>331</v>
+      </c>
+      <c r="N25" s="7">
+        <v>228219</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="M25" s="7">
-        <v>37</v>
-      </c>
-      <c r="N25" s="7">
-        <v>24509</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>269</v>
@@ -4224,13 +4224,13 @@
         <v>324222</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>442</v>
@@ -4239,13 +4239,13 @@
         <v>310938</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>913</v>
@@ -4254,13 +4254,13 @@
         <v>635160</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4279,7 +4279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCF3893-9ACF-40C1-BF5D-034EEF312C63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E9AC0C-66E7-41F4-AD85-023771C827D1}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4669,10 +4669,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>63384</v>
+        <v>2039</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>280</v>
@@ -4684,34 +4684,34 @@
         <v>282</v>
       </c>
       <c r="H10" s="7">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>44596</v>
+        <v>724</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>283</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>4</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2762</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="M10" s="7">
-        <v>152</v>
-      </c>
-      <c r="N10" s="7">
-        <v>107980</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,49 +4720,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>14843</v>
+        <v>3353</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>8</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4810</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="H11" s="7">
-        <v>19</v>
-      </c>
-      <c r="I11" s="7">
-        <v>13559</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>13</v>
+      </c>
+      <c r="N11" s="7">
+        <v>8164</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="M11" s="7">
-        <v>39</v>
-      </c>
-      <c r="N11" s="7">
-        <v>28401</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,49 +4771,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7">
-        <v>116513</v>
+        <v>8133</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H12" s="7">
+        <v>22</v>
+      </c>
+      <c r="I12" s="7">
+        <v>14780</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H12" s="7">
-        <v>143</v>
-      </c>
-      <c r="I12" s="7">
-        <v>105059</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>34</v>
+      </c>
+      <c r="N12" s="7">
+        <v>22912</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="M12" s="7">
-        <v>299</v>
-      </c>
-      <c r="N12" s="7">
-        <v>221571</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,49 +4822,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>8771</v>
+        <v>25947</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H13" s="7">
+        <v>40</v>
+      </c>
+      <c r="I13" s="7">
+        <v>27122</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H13" s="7">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12151</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>309</v>
       </c>
       <c r="M13" s="7">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="N13" s="7">
-        <v>20922</v>
+        <v>53069</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>310</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>120</v>
+        <v>311</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,49 +4873,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7">
-        <v>69109</v>
+        <v>35768</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H14" s="7">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="I14" s="7">
-        <v>83275</v>
+        <v>39620</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="N14" s="7">
-        <v>152383</v>
+        <v>75388</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,54 +4924,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>369</v>
+        <v>109</v>
       </c>
       <c r="D15" s="7">
-        <v>272620</v>
+        <v>75240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H15" s="7">
-        <v>362</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>258639</v>
+        <v>87055</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M15" s="7">
-        <v>731</v>
+        <v>240</v>
       </c>
       <c r="N15" s="7">
-        <v>531258</v>
+        <v>162295</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4980,46 +4980,46 @@
         <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>8133</v>
+        <v>8771</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H16" s="7">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>14780</v>
+        <v>12151</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>323</v>
+        <v>206</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>325</v>
       </c>
       <c r="M16" s="7">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N16" s="7">
-        <v>22912</v>
+        <v>20922</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>326</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,49 +5028,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>3353</v>
+        <v>14843</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>19</v>
+      </c>
+      <c r="I17" s="7">
+        <v>13559</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="H17" s="7">
-        <v>8</v>
-      </c>
-      <c r="I17" s="7">
-        <v>4810</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>39</v>
+      </c>
+      <c r="N17" s="7">
+        <v>28401</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M17" s="7">
-        <v>13</v>
-      </c>
-      <c r="N17" s="7">
-        <v>8164</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,49 +5079,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="D18" s="7">
-        <v>25947</v>
+        <v>63384</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>65</v>
+      </c>
+      <c r="I18" s="7">
+        <v>44596</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="H18" s="7">
-        <v>40</v>
-      </c>
-      <c r="I18" s="7">
-        <v>27122</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>152</v>
+      </c>
+      <c r="N18" s="7">
+        <v>107980</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M18" s="7">
-        <v>77</v>
-      </c>
-      <c r="N18" s="7">
-        <v>53069</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,40 +5130,40 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="D19" s="7">
-        <v>2039</v>
+        <v>116513</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>143</v>
+      </c>
+      <c r="I19" s="7">
+        <v>105059</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>724</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>350</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>299</v>
       </c>
       <c r="N19" s="7">
-        <v>2762</v>
+        <v>221571</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>351</v>
@@ -5181,10 +5181,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D20" s="7">
-        <v>35768</v>
+        <v>69109</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>354</v>
@@ -5196,10 +5196,10 @@
         <v>356</v>
       </c>
       <c r="H20" s="7">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="I20" s="7">
-        <v>39620</v>
+        <v>83275</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>357</v>
@@ -5211,10 +5211,10 @@
         <v>359</v>
       </c>
       <c r="M20" s="7">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="N20" s="7">
-        <v>75388</v>
+        <v>152383</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>360</v>
@@ -5232,49 +5232,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>109</v>
+        <v>369</v>
       </c>
       <c r="D21" s="7">
-        <v>75240</v>
+        <v>272620</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>131</v>
+        <v>362</v>
       </c>
       <c r="I21" s="7">
-        <v>87055</v>
+        <v>258639</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>240</v>
+        <v>731</v>
       </c>
       <c r="N21" s="7">
-        <v>162295</v>
+        <v>531258</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,10 +5285,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D22" s="7">
-        <v>71517</v>
+        <v>10810</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>363</v>
@@ -5300,34 +5300,34 @@
         <v>365</v>
       </c>
       <c r="H22" s="7">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I22" s="7">
-        <v>59376</v>
+        <v>12874</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>33</v>
+      </c>
+      <c r="N22" s="7">
+        <v>23685</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="M22" s="7">
-        <v>186</v>
-      </c>
-      <c r="N22" s="7">
-        <v>130892</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5342,13 @@
         <v>18196</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -5357,13 +5357,13 @@
         <v>18369</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
@@ -5372,13 +5372,13 @@
         <v>36565</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5387,13 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>193</v>
+        <v>99</v>
       </c>
       <c r="D24" s="7">
-        <v>142460</v>
+        <v>71517</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>174</v>
+        <v>378</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>379</v>
@@ -5402,10 +5402,10 @@
         <v>380</v>
       </c>
       <c r="H24" s="7">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="I24" s="7">
-        <v>132181</v>
+        <v>59376</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>381</v>
@@ -5417,10 +5417,10 @@
         <v>383</v>
       </c>
       <c r="M24" s="7">
-        <v>376</v>
+        <v>186</v>
       </c>
       <c r="N24" s="7">
-        <v>274641</v>
+        <v>130892</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>384</v>
@@ -5429,7 +5429,7 @@
         <v>385</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>298</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,13 +5438,13 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="D25" s="7">
-        <v>10810</v>
+        <v>142460</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>386</v>
+        <v>226</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>387</v>
@@ -5453,34 +5453,34 @@
         <v>388</v>
       </c>
       <c r="H25" s="7">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="I25" s="7">
-        <v>12874</v>
+        <v>132181</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>33</v>
+        <v>389</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M25" s="7">
-        <v>33</v>
+        <v>376</v>
       </c>
       <c r="N25" s="7">
-        <v>23685</v>
+        <v>274641</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,7 +5528,7 @@
         <v>400</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>401</v>
@@ -5546,13 +5546,13 @@
         <v>347860</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>493</v>
@@ -5561,13 +5561,13 @@
         <v>345694</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>971</v>
@@ -5576,13 +5576,13 @@
         <v>693554</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C17-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BF5058E-F0EE-4E11-80B4-3874DB1B2A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BEA38F4-473C-4ED1-A895-20F92AF1B1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6C8DD045-DC57-4237-82B9-75A979BB6124}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C5FDCF97-A618-48D7-A16E-154E61E64A13}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="405">
   <si>
     <t>Menores según frecuencia de gustarle ir al colegio en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -67,1081 +67,1183 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de gustarle ir al colegio en 2012 (Tasa respuesta: 43,5%)</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de gustarle ir al colegio en 2015 (Tasa respuesta: 45,67%)</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de gustarle ir al colegio en 2012 (Tasa respuesta: 43,5%)</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de gustarle ir al colegio en 2015 (Tasa respuesta: 45,67%)</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>3,41%</t>
@@ -1150,100 +1252,7 @@
     <t>2,41%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
+    <t>4,73%</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1263,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1350,39 +1359,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1434,7 +1443,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1545,13 +1554,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1560,6 +1562,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1624,19 +1633,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C5DD08-D3D8-4BE6-879F-1B6A3AF133F6}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8937E39-3F67-4E78-A746-EF41BB4E108E}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2025,49 +2054,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7">
-        <v>3832</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
-      </c>
-      <c r="N10" s="7">
-        <v>4552</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,49 +2099,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1976</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4824</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,49 +2144,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>21</v>
-      </c>
-      <c r="D12" s="7">
-        <v>13236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>11</v>
-      </c>
-      <c r="I12" s="7">
-        <v>7373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>32</v>
-      </c>
-      <c r="N12" s="7">
-        <v>20608</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,49 +2189,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
-      </c>
-      <c r="D13" s="7">
-        <v>24171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>36</v>
-      </c>
-      <c r="I13" s="7">
-        <v>23756</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>72</v>
-      </c>
-      <c r="N13" s="7">
-        <v>47928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,49 +2234,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>23</v>
-      </c>
-      <c r="D14" s="7">
-        <v>14982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>22</v>
-      </c>
-      <c r="I14" s="7">
-        <v>15057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>45</v>
-      </c>
-      <c r="N14" s="7">
-        <v>30039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,102 +2279,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
-      </c>
-      <c r="D15" s="7">
-        <v>59069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
-      </c>
-      <c r="I15" s="7">
-        <v>48882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>163</v>
-      </c>
-      <c r="N15" s="7">
-        <v>107951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>50</v>
+      </c>
+      <c r="D16" s="7">
+        <v>33062</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="7">
+        <v>55</v>
+      </c>
+      <c r="I16" s="7">
+        <v>37092</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="7">
-        <v>15110</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="7">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7">
-        <v>10088</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="M16" s="7">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="N16" s="7">
-        <v>25198</v>
+        <v>70154</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,49 +2377,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D17" s="7">
-        <v>13572</v>
+        <v>43486</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I17" s="7">
-        <v>11104</v>
+        <v>50978</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="N17" s="7">
-        <v>24677</v>
+        <v>94463</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,49 +2428,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="D18" s="7">
-        <v>79520</v>
+        <v>30897</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>45049</v>
+        <v>18367</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="N18" s="7">
-        <v>124569</v>
+        <v>49264</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,49 +2479,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>91477</v>
+        <v>6306</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>107270</v>
+        <v>3820</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>297</v>
+        <v>15</v>
       </c>
       <c r="N19" s="7">
-        <v>198748</v>
+        <v>10126</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,49 +2530,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="D20" s="7">
-        <v>50135</v>
+        <v>9036</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>68253</v>
+        <v>1453</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="N20" s="7">
-        <v>118388</v>
+        <v>10490</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,102 +2581,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>375</v>
+        <v>185</v>
       </c>
       <c r="D21" s="7">
-        <v>249815</v>
+        <v>122787</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>359</v>
+        <v>168</v>
       </c>
       <c r="I21" s="7">
-        <v>241764</v>
+        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>734</v>
+        <v>353</v>
       </c>
       <c r="N21" s="7">
-        <v>491579</v>
+        <v>234497</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D22" s="7">
-        <v>18943</v>
+        <v>32055</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I22" s="7">
-        <v>10808</v>
+        <v>46217</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="M22" s="7">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="N22" s="7">
-        <v>29751</v>
+        <v>78272</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,49 +2685,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="D23" s="7">
-        <v>16420</v>
+        <v>72163</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="H23" s="7">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="I23" s="7">
-        <v>13080</v>
+        <v>80049</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="N23" s="7">
-        <v>29500</v>
+        <v>152211</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,49 +2736,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="D24" s="7">
-        <v>92755</v>
+        <v>61858</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="H24" s="7">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I24" s="7">
-        <v>52422</v>
+        <v>34054</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="M24" s="7">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="N24" s="7">
-        <v>145177</v>
+        <v>95913</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,49 +2787,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="D25" s="7">
-        <v>115648</v>
+        <v>10115</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="H25" s="7">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="I25" s="7">
-        <v>131027</v>
+        <v>9260</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="M25" s="7">
-        <v>369</v>
+        <v>29</v>
       </c>
       <c r="N25" s="7">
-        <v>246675</v>
+        <v>19375</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,49 +2838,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="D26" s="7">
-        <v>65117</v>
+        <v>9907</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="H26" s="7">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="I26" s="7">
-        <v>83310</v>
+        <v>9354</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="M26" s="7">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="N26" s="7">
-        <v>148427</v>
+        <v>19261</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,55 +2889,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>280</v>
+      </c>
+      <c r="D27" s="7">
+        <v>186097</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>264</v>
+      </c>
+      <c r="I27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>544</v>
+      </c>
+      <c r="N27" s="7">
+        <v>365032</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>98</v>
+      </c>
+      <c r="D28" s="7">
+        <v>65117</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="7">
+        <v>123</v>
+      </c>
+      <c r="I28" s="7">
+        <v>83310</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M28" s="7">
+        <v>221</v>
+      </c>
+      <c r="N28" s="7">
+        <v>148427</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>173</v>
+      </c>
+      <c r="D29" s="7">
+        <v>115648</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="7">
+        <v>196</v>
+      </c>
+      <c r="I29" s="7">
+        <v>131027</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M29" s="7">
+        <v>369</v>
+      </c>
+      <c r="N29" s="7">
+        <v>246675</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>141</v>
+      </c>
+      <c r="D30" s="7">
+        <v>92755</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="7">
+        <v>77</v>
+      </c>
+      <c r="I30" s="7">
+        <v>52422</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M30" s="7">
+        <v>218</v>
+      </c>
+      <c r="N30" s="7">
+        <v>145177</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>24</v>
+      </c>
+      <c r="D31" s="7">
+        <v>16420</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="7">
+        <v>20</v>
+      </c>
+      <c r="I31" s="7">
+        <v>13080</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M31" s="7">
+        <v>44</v>
+      </c>
+      <c r="N31" s="7">
+        <v>29500</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>29</v>
+      </c>
+      <c r="D32" s="7">
+        <v>18943</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H32" s="7">
+        <v>16</v>
+      </c>
+      <c r="I32" s="7">
+        <v>10808</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M32" s="7">
+        <v>45</v>
+      </c>
+      <c r="N32" s="7">
+        <v>29751</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>465</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>308884</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>432</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>290646</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>897</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>599530</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>62</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2957,8 +3264,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDBB093-8AE3-46ED-9C51-B4D530CC92CA}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84C026F-D420-4CFA-8BED-0A4D64205A64}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2974,7 +3281,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3347,49 +3654,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7">
-        <v>3315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
-      </c>
-      <c r="N10" s="7">
-        <v>4027</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,49 +3699,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7">
-        <v>3739</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>8</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5683</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,49 +3744,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>15</v>
-      </c>
-      <c r="D12" s="7">
-        <v>10496</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>10</v>
-      </c>
-      <c r="I12" s="7">
-        <v>7269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>25</v>
-      </c>
-      <c r="N12" s="7">
-        <v>17766</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,49 +3789,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>32</v>
-      </c>
-      <c r="D13" s="7">
-        <v>22938</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>36</v>
-      </c>
-      <c r="I13" s="7">
-        <v>25841</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>68</v>
-      </c>
-      <c r="N13" s="7">
-        <v>48778</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,49 +3834,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>34</v>
-      </c>
-      <c r="D14" s="7">
-        <v>25032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>47</v>
-      </c>
-      <c r="I14" s="7">
-        <v>32976</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>81</v>
-      </c>
-      <c r="N14" s="7">
-        <v>58008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,102 +3879,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>91</v>
-      </c>
-      <c r="D15" s="7">
-        <v>65520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>97</v>
-      </c>
-      <c r="I15" s="7">
-        <v>68742</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>188</v>
-      </c>
-      <c r="N15" s="7">
-        <v>134262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D16" s="7">
-        <v>12316</v>
+        <v>57832</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I16" s="7">
-        <v>8167</v>
+        <v>65881</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="M16" s="7">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="N16" s="7">
-        <v>20482</v>
+        <v>123712</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,49 +3977,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D17" s="7">
-        <v>16433</v>
+        <v>56424</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I17" s="7">
-        <v>11374</v>
+        <v>55791</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="N17" s="7">
-        <v>27808</v>
+        <v>112215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,49 +4028,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7">
-        <v>55536</v>
+        <v>24023</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="H18" s="7">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>49076</v>
+        <v>20066</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="M18" s="7">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="N18" s="7">
-        <v>104611</v>
+        <v>44088</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,49 +4079,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>91733</v>
+        <v>9948</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="H19" s="7">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>87709</v>
+        <v>6233</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="M19" s="7">
-        <v>263</v>
+        <v>23</v>
       </c>
       <c r="N19" s="7">
-        <v>179441</v>
+        <v>16181</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>227</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>228</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,49 +4130,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>82684</v>
+        <v>6546</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="H20" s="7">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>85872</v>
+        <v>1368</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>233</v>
+        <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="M20" s="7">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="N20" s="7">
-        <v>168555</v>
+        <v>7914</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,102 +4181,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>380</v>
+        <v>222</v>
       </c>
       <c r="D21" s="7">
-        <v>258702</v>
+        <v>154773</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>345</v>
+        <v>213</v>
       </c>
       <c r="I21" s="7">
-        <v>242197</v>
+        <v>149338</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>725</v>
+        <v>435</v>
       </c>
       <c r="N21" s="7">
-        <v>500898</v>
+        <v>304111</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D22" s="7">
-        <v>15631</v>
+        <v>49884</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="H22" s="7">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="I22" s="7">
-        <v>8879</v>
+        <v>52967</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="M22" s="7">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="N22" s="7">
-        <v>24509</v>
+        <v>102851</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>242</v>
+        <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,49 +4285,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="D23" s="7">
-        <v>20173</v>
+        <v>58246</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="H23" s="7">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="I23" s="7">
-        <v>13318</v>
+        <v>57758</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="M23" s="7">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="N23" s="7">
-        <v>33490</v>
+        <v>116004</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,49 +4336,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="D24" s="7">
-        <v>66032</v>
+        <v>42009</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="H24" s="7">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I24" s="7">
-        <v>56345</v>
+        <v>36279</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="M24" s="7">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="N24" s="7">
-        <v>122377</v>
+        <v>78289</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,49 +4387,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="D25" s="7">
-        <v>114671</v>
+        <v>10224</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="H25" s="7">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="I25" s="7">
-        <v>113549</v>
+        <v>7085</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="M25" s="7">
-        <v>331</v>
+        <v>25</v>
       </c>
       <c r="N25" s="7">
-        <v>228219</v>
+        <v>17309</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>267</v>
+        <v>104</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,49 +4438,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="D26" s="7">
-        <v>107716</v>
+        <v>9084</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="H26" s="7">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="I26" s="7">
-        <v>118848</v>
+        <v>7511</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="M26" s="7">
-        <v>322</v>
+        <v>25</v>
       </c>
       <c r="N26" s="7">
-        <v>226564</v>
+        <v>16595</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,55 +4489,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>249</v>
+      </c>
+      <c r="D27" s="7">
+        <v>169448</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>229</v>
+      </c>
+      <c r="I27" s="7">
+        <v>161600</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>478</v>
+      </c>
+      <c r="N27" s="7">
+        <v>331049</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>152</v>
+      </c>
+      <c r="D28" s="7">
+        <v>107716</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="7">
+        <v>170</v>
+      </c>
+      <c r="I28" s="7">
+        <v>118848</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" s="7">
+        <v>322</v>
+      </c>
+      <c r="N28" s="7">
+        <v>226564</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>169</v>
+      </c>
+      <c r="D29" s="7">
+        <v>114671</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H29" s="7">
+        <v>162</v>
+      </c>
+      <c r="I29" s="7">
+        <v>113549</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M29" s="7">
+        <v>331</v>
+      </c>
+      <c r="N29" s="7">
+        <v>228219</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>97</v>
+      </c>
+      <c r="D30" s="7">
+        <v>66032</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H30" s="7">
+        <v>78</v>
+      </c>
+      <c r="I30" s="7">
+        <v>56345</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M30" s="7">
+        <v>175</v>
+      </c>
+      <c r="N30" s="7">
+        <v>122377</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>29</v>
+      </c>
+      <c r="D31" s="7">
+        <v>20173</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H31" s="7">
+        <v>19</v>
+      </c>
+      <c r="I31" s="7">
+        <v>13318</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M31" s="7">
+        <v>48</v>
+      </c>
+      <c r="N31" s="7">
+        <v>33490</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>24</v>
+      </c>
+      <c r="D32" s="7">
+        <v>15631</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H32" s="7">
+        <v>13</v>
+      </c>
+      <c r="I32" s="7">
+        <v>8879</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M32" s="7">
+        <v>37</v>
+      </c>
+      <c r="N32" s="7">
+        <v>24509</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>471</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>324222</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>442</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>310938</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>913</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>635160</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>62</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4279,8 +4864,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E9AC0C-66E7-41F4-AD85-023771C827D1}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DE7DA8-4CF4-40C8-BC78-AB5467B76350}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4296,7 +4881,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4669,49 +5254,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2762</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,49 +5299,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7">
-        <v>3353</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>13</v>
-      </c>
-      <c r="N11" s="7">
-        <v>8164</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,49 +5344,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7">
-        <v>8133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>22</v>
-      </c>
-      <c r="I12" s="7">
-        <v>14780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>34</v>
-      </c>
-      <c r="N12" s="7">
-        <v>22912</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,49 +5389,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>37</v>
-      </c>
-      <c r="D13" s="7">
-        <v>25947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>305</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>40</v>
-      </c>
-      <c r="I13" s="7">
-        <v>27122</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>307</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>77</v>
-      </c>
-      <c r="N13" s="7">
-        <v>53069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>312</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,49 +5434,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>52</v>
-      </c>
-      <c r="D14" s="7">
-        <v>35768</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>313</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>60</v>
-      </c>
-      <c r="I14" s="7">
-        <v>39620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>316</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>317</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>318</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>112</v>
-      </c>
-      <c r="N14" s="7">
-        <v>75388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>319</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>320</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>321</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,102 +5479,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>109</v>
-      </c>
-      <c r="D15" s="7">
-        <v>75240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>131</v>
-      </c>
-      <c r="I15" s="7">
-        <v>87055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>240</v>
-      </c>
-      <c r="N15" s="7">
-        <v>162295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D16" s="7">
-        <v>8771</v>
+        <v>67685</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="I16" s="7">
-        <v>12151</v>
+        <v>74703</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M16" s="7">
         <v>206</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M16" s="7">
-        <v>29</v>
-      </c>
       <c r="N16" s="7">
-        <v>20922</v>
+        <v>142388</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>119</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,49 +5577,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="D17" s="7">
-        <v>14843</v>
+        <v>68745</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>328</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="I17" s="7">
-        <v>13559</v>
+        <v>68269</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="N17" s="7">
-        <v>28401</v>
+        <v>137013</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,49 +5628,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="D18" s="7">
-        <v>63384</v>
+        <v>25419</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="H18" s="7">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I18" s="7">
-        <v>44596</v>
+        <v>23888</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>341</v>
+        <v>181</v>
       </c>
       <c r="M18" s="7">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="N18" s="7">
-        <v>107980</v>
+        <v>49307</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,49 +5679,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>116513</v>
+        <v>11264</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="H19" s="7">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>105059</v>
+        <v>7204</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>348</v>
+        <v>274</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>349</v>
+        <v>190</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="M19" s="7">
-        <v>299</v>
+        <v>26</v>
       </c>
       <c r="N19" s="7">
-        <v>221571</v>
+        <v>18468</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,49 +5730,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>69109</v>
+        <v>4156</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7">
-        <v>83275</v>
+        <v>6823</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="M20" s="7">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="N20" s="7">
-        <v>152383</v>
+        <v>10979</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,102 +5781,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>369</v>
+        <v>248</v>
       </c>
       <c r="D21" s="7">
-        <v>272620</v>
+        <v>177268</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>362</v>
+        <v>259</v>
       </c>
       <c r="I21" s="7">
-        <v>258639</v>
+        <v>180887</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>731</v>
+        <v>507</v>
       </c>
       <c r="N21" s="7">
-        <v>531258</v>
+        <v>358155</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D22" s="7">
-        <v>10810</v>
+        <v>37192</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="H22" s="7">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I22" s="7">
-        <v>12874</v>
+        <v>48191</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>367</v>
+        <v>288</v>
       </c>
       <c r="M22" s="7">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="N22" s="7">
-        <v>23685</v>
+        <v>85384</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,49 +5885,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="D23" s="7">
-        <v>18196</v>
+        <v>73715</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="H23" s="7">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="I23" s="7">
-        <v>18369</v>
+        <v>63912</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>374</v>
+        <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="M23" s="7">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="N23" s="7">
-        <v>36565</v>
+        <v>137627</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>249</v>
+        <v>336</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>80</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,49 +5936,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D24" s="7">
-        <v>71517</v>
+        <v>46098</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="H24" s="7">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="I24" s="7">
-        <v>59376</v>
+        <v>35488</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="M24" s="7">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="N24" s="7">
-        <v>130892</v>
+        <v>81586</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,49 +5987,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>193</v>
+        <v>10</v>
       </c>
       <c r="D25" s="7">
-        <v>142460</v>
+        <v>6932</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>226</v>
+        <v>347</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="H25" s="7">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="I25" s="7">
-        <v>132181</v>
+        <v>11164</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="M25" s="7">
-        <v>376</v>
+        <v>26</v>
       </c>
       <c r="N25" s="7">
-        <v>274641</v>
+        <v>18097</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,49 +6038,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="D26" s="7">
-        <v>104877</v>
+        <v>6654</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="H26" s="7">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="I26" s="7">
-        <v>122894</v>
+        <v>6051</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="M26" s="7">
-        <v>324</v>
+        <v>18</v>
       </c>
       <c r="N26" s="7">
-        <v>227771</v>
+        <v>12706</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,55 +6089,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170592</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>234</v>
+      </c>
+      <c r="I27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>464</v>
+      </c>
+      <c r="N27" s="7">
+        <v>335399</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>146</v>
+      </c>
+      <c r="D28" s="7">
+        <v>104877</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H28" s="7">
+        <v>178</v>
+      </c>
+      <c r="I28" s="7">
+        <v>122894</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="M28" s="7">
+        <v>324</v>
+      </c>
+      <c r="N28" s="7">
+        <v>227771</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>193</v>
+      </c>
+      <c r="D29" s="7">
+        <v>142460</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H29" s="7">
+        <v>183</v>
+      </c>
+      <c r="I29" s="7">
+        <v>132181</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="M29" s="7">
+        <v>376</v>
+      </c>
+      <c r="N29" s="7">
+        <v>274641</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>99</v>
+      </c>
+      <c r="D30" s="7">
+        <v>71517</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H30" s="7">
+        <v>87</v>
+      </c>
+      <c r="I30" s="7">
+        <v>59376</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M30" s="7">
+        <v>186</v>
+      </c>
+      <c r="N30" s="7">
+        <v>130892</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>25</v>
+      </c>
+      <c r="D31" s="7">
+        <v>18196</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H31" s="7">
+        <v>27</v>
+      </c>
+      <c r="I31" s="7">
+        <v>18369</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="M31" s="7">
+        <v>52</v>
+      </c>
+      <c r="N31" s="7">
+        <v>36565</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>15</v>
+      </c>
+      <c r="D32" s="7">
+        <v>10810</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H32" s="7">
+        <v>18</v>
+      </c>
+      <c r="I32" s="7">
+        <v>12874</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="M32" s="7">
+        <v>33</v>
+      </c>
+      <c r="N32" s="7">
+        <v>23685</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>478</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>347860</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>493</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>345694</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>971</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>693554</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>62</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C17-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BEA38F4-473C-4ED1-A895-20F92AF1B1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B59081F-99AA-4A41-8739-B1A4A3FDAF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C5FDCF97-A618-48D7-A16E-154E61E64A13}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D084E085-4A72-4864-87ED-2443569280E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="397">
   <si>
     <t>Menores según frecuencia de gustarle ir al colegio en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -97,1162 +97,1138 @@
     <t>26,93%</t>
   </si>
   <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
   </si>
   <si>
     <t>29,92%</t>
   </si>
   <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
   </si>
   <si>
     <t>35,42%</t>
   </si>
   <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
   </si>
   <si>
     <t>45,63%</t>
   </si>
   <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
   </si>
   <si>
     <t>40,28%</t>
   </si>
   <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de gustarle ir al colegio en 2012 (Tasa respuesta: 43,5%)</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
     <t>35,16%</t>
   </si>
   <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
   </si>
   <si>
     <t>31,07%</t>
   </si>
   <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
   </si>
   <si>
     <t>32,97%</t>
   </si>
   <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
   </si>
   <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de gustarle ir al colegio en 2016 (Tasa respuesta: 45,67%)</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de gustarle ir al colegio en 2012 (Tasa respuesta: 43,5%)</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de gustarle ir al colegio en 2015 (Tasa respuesta: 45,67%)</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
+    <t>7,58%</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
   </si>
   <si>
     <t>35,55%</t>
   </si>
   <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
   </si>
   <si>
     <t>32,84%</t>
   </si>
   <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
   </si>
   <si>
     <t>40,95%</t>
   </si>
   <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
   </si>
   <si>
     <t>38,24%</t>
   </si>
   <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
   </si>
   <si>
     <t>39,6%</t>
   </si>
   <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
   </si>
   <si>
     <t>17,18%</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
   </si>
   <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +1640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8937E39-3F67-4E78-A746-EF41BB4E108E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F685AF3C-6E2E-4901-B11F-0B712EEDDFBE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2539,10 +2515,10 @@
         <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2551,13 +2527,13 @@
         <v>1453</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -2566,13 +2542,13 @@
         <v>10490</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,13 +2563,13 @@
         <v>122787</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>168</v>
@@ -2602,13 +2578,13 @@
         <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>353</v>
@@ -2617,18 +2593,18 @@
         <v>234497</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2640,13 +2616,13 @@
         <v>32055</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -2655,13 +2631,13 @@
         <v>46217</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M22" s="7">
         <v>116</v>
@@ -2670,13 +2646,13 @@
         <v>78272</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,13 +2667,13 @@
         <v>72163</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H23" s="7">
         <v>119</v>
@@ -2706,13 +2682,13 @@
         <v>80049</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M23" s="7">
         <v>227</v>
@@ -2721,13 +2697,13 @@
         <v>152211</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,13 +2718,13 @@
         <v>61858</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H24" s="7">
         <v>49</v>
@@ -2757,13 +2733,13 @@
         <v>34054</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M24" s="7">
         <v>143</v>
@@ -2772,13 +2748,13 @@
         <v>95913</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2769,13 @@
         <v>10115</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -2808,13 +2784,13 @@
         <v>9260</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -2823,13 +2799,13 @@
         <v>19375</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2820,13 @@
         <v>9907</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -2859,13 +2835,13 @@
         <v>9354</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M26" s="7">
         <v>29</v>
@@ -2874,13 +2850,13 @@
         <v>19261</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2871,13 @@
         <v>186097</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>264</v>
@@ -2910,13 +2886,13 @@
         <v>178935</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>544</v>
@@ -2925,13 +2901,13 @@
         <v>365032</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2924,13 @@
         <v>65117</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H28" s="7">
         <v>123</v>
@@ -2963,13 +2939,13 @@
         <v>83310</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M28" s="7">
         <v>221</v>
@@ -2978,13 +2954,13 @@
         <v>148427</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2975,13 @@
         <v>115648</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H29" s="7">
         <v>196</v>
@@ -3014,13 +2990,13 @@
         <v>131027</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M29" s="7">
         <v>369</v>
@@ -3029,13 +3005,13 @@
         <v>246675</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3026,13 @@
         <v>92755</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H30" s="7">
         <v>77</v>
@@ -3065,13 +3041,13 @@
         <v>52422</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M30" s="7">
         <v>218</v>
@@ -3080,13 +3056,13 @@
         <v>145177</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3077,13 @@
         <v>16420</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H31" s="7">
         <v>20</v>
@@ -3116,13 +3092,13 @@
         <v>13080</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="M31" s="7">
         <v>44</v>
@@ -3131,13 +3107,13 @@
         <v>29500</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,13 +3128,13 @@
         <v>18943</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H32" s="7">
         <v>16</v>
@@ -3167,13 +3143,13 @@
         <v>10808</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M32" s="7">
         <v>45</v>
@@ -3182,13 +3158,13 @@
         <v>29751</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3179,13 @@
         <v>308884</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" s="7">
         <v>432</v>
@@ -3218,13 +3194,13 @@
         <v>290646</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M33" s="7">
         <v>897</v>
@@ -3233,18 +3209,18 @@
         <v>599530</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3264,7 +3240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84C026F-D420-4CFA-8BED-0A4D64205A64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441BD7E9-0344-42FD-A47D-DA5A24904597}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3281,7 +3257,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3932,13 +3908,13 @@
         <v>57832</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H16" s="7">
         <v>95</v>
@@ -3947,13 +3923,13 @@
         <v>65881</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>176</v>
@@ -3962,13 +3938,13 @@
         <v>123712</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,13 +3959,13 @@
         <v>56424</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H17" s="7">
         <v>79</v>
@@ -3998,13 +3974,13 @@
         <v>55791</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M17" s="7">
         <v>161</v>
@@ -4013,13 +3989,13 @@
         <v>112215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4010,13 @@
         <v>24023</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -4049,13 +4025,13 @@
         <v>20066</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M18" s="7">
         <v>63</v>
@@ -4064,13 +4040,13 @@
         <v>44088</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4061,13 @@
         <v>9948</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -4100,13 +4076,13 @@
         <v>6233</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -4115,13 +4091,13 @@
         <v>16181</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4112,13 @@
         <v>6546</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4151,13 +4127,13 @@
         <v>1368</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -4166,13 +4142,13 @@
         <v>7914</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4163,13 @@
         <v>154773</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>213</v>
@@ -4202,13 +4178,13 @@
         <v>149338</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>435</v>
@@ -4217,18 +4193,18 @@
         <v>304111</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4240,13 +4216,13 @@
         <v>49884</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H22" s="7">
         <v>75</v>
@@ -4255,13 +4231,13 @@
         <v>52967</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M22" s="7">
         <v>146</v>
@@ -4270,13 +4246,13 @@
         <v>102851</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4267,13 @@
         <v>58246</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H23" s="7">
         <v>83</v>
@@ -4306,13 +4282,13 @@
         <v>57758</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M23" s="7">
         <v>170</v>
@@ -4321,13 +4297,13 @@
         <v>116004</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4318,13 @@
         <v>42009</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H24" s="7">
         <v>50</v>
@@ -4357,13 +4333,13 @@
         <v>36279</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M24" s="7">
         <v>112</v>
@@ -4372,13 +4348,13 @@
         <v>78289</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4369,13 @@
         <v>10224</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -4408,13 +4384,13 @@
         <v>7085</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -4423,13 +4399,13 @@
         <v>17309</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4420,13 @@
         <v>9084</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>232</v>
+        <v>99</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -4459,13 +4435,13 @@
         <v>7511</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -4474,13 +4450,13 @@
         <v>16595</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4471,13 @@
         <v>169448</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>229</v>
@@ -4510,13 +4486,13 @@
         <v>161600</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>478</v>
@@ -4525,13 +4501,13 @@
         <v>331049</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,13 +4524,13 @@
         <v>107716</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H28" s="7">
         <v>170</v>
@@ -4563,13 +4539,13 @@
         <v>118848</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M28" s="7">
         <v>322</v>
@@ -4578,13 +4554,13 @@
         <v>226564</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4575,13 @@
         <v>114671</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H29" s="7">
         <v>162</v>
@@ -4614,13 +4590,13 @@
         <v>113549</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M29" s="7">
         <v>331</v>
@@ -4629,13 +4605,13 @@
         <v>228219</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4626,13 @@
         <v>66032</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H30" s="7">
         <v>78</v>
@@ -4665,13 +4641,13 @@
         <v>56345</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M30" s="7">
         <v>175</v>
@@ -4680,13 +4656,13 @@
         <v>122377</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4677,13 @@
         <v>20173</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H31" s="7">
         <v>19</v>
@@ -4716,13 +4692,13 @@
         <v>13318</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M31" s="7">
         <v>48</v>
@@ -4731,13 +4707,13 @@
         <v>33490</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4728,13 @@
         <v>15631</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>278</v>
+        <v>61</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -4767,13 +4743,13 @@
         <v>8879</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M32" s="7">
         <v>37</v>
@@ -4782,13 +4758,13 @@
         <v>24509</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4779,13 @@
         <v>324222</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" s="7">
         <v>442</v>
@@ -4818,13 +4794,13 @@
         <v>310938</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M33" s="7">
         <v>913</v>
@@ -4833,18 +4809,18 @@
         <v>635160</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4864,7 +4840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DE7DA8-4CF4-40C8-BC78-AB5467B76350}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00BCBD2-5474-4479-B5BD-0D51DC2CAA48}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4881,7 +4857,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5532,13 +5508,13 @@
         <v>67685</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H16" s="7">
         <v>110</v>
@@ -5547,13 +5523,13 @@
         <v>74703</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>206</v>
@@ -5562,13 +5538,13 @@
         <v>142388</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5559,13 @@
         <v>68745</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H17" s="7">
         <v>94</v>
@@ -5598,13 +5574,13 @@
         <v>68269</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>189</v>
@@ -5613,13 +5589,13 @@
         <v>137013</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5610,13 @@
         <v>25419</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
@@ -5649,13 +5625,13 @@
         <v>23888</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>181</v>
+        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>71</v>
@@ -5664,13 +5640,13 @@
         <v>49307</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5661,13 @@
         <v>11264</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>139</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -5700,13 +5676,13 @@
         <v>7204</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>190</v>
+        <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -5715,13 +5691,13 @@
         <v>18468</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5712,13 @@
         <v>4156</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -5751,13 +5727,13 @@
         <v>6823</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -5766,13 +5742,13 @@
         <v>10979</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,13 +5763,13 @@
         <v>177268</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>259</v>
@@ -5802,13 +5778,13 @@
         <v>180887</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>507</v>
@@ -5817,18 +5793,18 @@
         <v>358155</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5840,13 +5816,13 @@
         <v>37192</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>324</v>
+        <v>66</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -5855,13 +5831,13 @@
         <v>48191</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>118</v>
@@ -5870,13 +5846,13 @@
         <v>85384</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5867,13 @@
         <v>73715</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H23" s="7">
         <v>89</v>
@@ -5906,13 +5882,13 @@
         <v>63912</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>83</v>
+        <v>330</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
         <v>187</v>
@@ -5921,13 +5897,13 @@
         <v>137627</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5918,13 @@
         <v>46098</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>339</v>
+        <v>197</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H24" s="7">
         <v>52</v>
@@ -5957,13 +5933,13 @@
         <v>35488</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M24" s="7">
         <v>115</v>
@@ -5972,13 +5948,13 @@
         <v>81586</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +5969,13 @@
         <v>6932</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>349</v>
+        <v>61</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -6008,13 +5984,13 @@
         <v>11164</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -6023,13 +5999,13 @@
         <v>18097</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,13 +6020,13 @@
         <v>6654</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -6059,13 +6035,13 @@
         <v>6051</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>359</v>
+        <v>139</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -6074,13 +6050,13 @@
         <v>12706</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6071,13 @@
         <v>170592</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>234</v>
@@ -6110,13 +6086,13 @@
         <v>164807</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>464</v>
@@ -6125,13 +6101,13 @@
         <v>335399</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6124,13 @@
         <v>104877</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H28" s="7">
         <v>178</v>
@@ -6163,13 +6139,13 @@
         <v>122894</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M28" s="7">
         <v>324</v>
@@ -6178,13 +6154,13 @@
         <v>227771</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6175,13 @@
         <v>142460</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H29" s="7">
         <v>183</v>
@@ -6214,13 +6190,13 @@
         <v>132181</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M29" s="7">
         <v>376</v>
@@ -6229,13 +6205,13 @@
         <v>274641</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,13 +6226,13 @@
         <v>71517</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H30" s="7">
         <v>87</v>
@@ -6265,13 +6241,13 @@
         <v>59376</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M30" s="7">
         <v>186</v>
@@ -6280,13 +6256,13 @@
         <v>130892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6277,13 @@
         <v>18196</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>137</v>
+        <v>386</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H31" s="7">
         <v>27</v>
@@ -6316,13 +6292,13 @@
         <v>18369</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>393</v>
+        <v>105</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M31" s="7">
         <v>52</v>
@@ -6331,13 +6307,13 @@
         <v>36565</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6352,13 +6328,13 @@
         <v>10810</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -6367,13 +6343,13 @@
         <v>12874</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>400</v>
+        <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="M32" s="7">
         <v>33</v>
@@ -6382,13 +6358,13 @@
         <v>23685</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>402</v>
+        <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6403,13 +6379,13 @@
         <v>347860</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" s="7">
         <v>493</v>
@@ -6418,13 +6394,13 @@
         <v>345694</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M33" s="7">
         <v>971</v>
@@ -6433,18 +6409,18 @@
         <v>693554</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C17-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B59081F-99AA-4A41-8739-B1A4A3FDAF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0FA4597-1B22-48B9-A94D-8E9324150794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D084E085-4A72-4864-87ED-2443569280E4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0A513013-47A1-4959-B399-9C2C4BC5CEBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="402">
   <si>
     <t>Menores según frecuencia de gustarle ir al colegio en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,136 +94,139 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
     <t>26,93%</t>
   </si>
   <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
   </si>
   <si>
     <t>29,92%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
   </si>
   <si>
     <t>35,42%</t>
   </si>
   <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
   </si>
   <si>
     <t>40,28%</t>
   </si>
   <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
   </si>
   <si>
     <t>25,16%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
   </si>
   <si>
     <t>21,01%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
   </si>
   <si>
     <t>5,14%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
+    <t>7,1%</t>
   </si>
   <si>
     <t>100%</t>
@@ -232,1003 +235,1015 @@
     <t>12-15</t>
   </si>
   <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
     <t>17,22%</t>
   </si>
   <si>
-    <t>12,55%</t>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de gustarle ir al colegio en 2012 (Tasa respuesta: 43,5%)</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de gustarle ir al colegio en 2016 (Tasa respuesta: 45,67%)</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
   </si>
   <si>
     <t>3,58%</t>
   </si>
   <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de gustarle ir al colegio en 2012 (Tasa respuesta: 43,5%)</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de gustarle ir al colegio en 2016 (Tasa respuesta: 45,67%)</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +1655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F685AF3C-6E2E-4901-B11F-0B712EEDDFBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371E3D54-F3E6-47B6-BDB2-8446311D4570}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2302,10 +2317,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D16" s="7">
-        <v>33062</v>
+        <v>37092</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2317,10 +2332,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I16" s="7">
-        <v>37092</v>
+        <v>33062</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2353,10 +2368,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D17" s="7">
-        <v>43486</v>
+        <v>50978</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2368,10 +2383,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I17" s="7">
-        <v>50978</v>
+        <v>43486</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2404,10 +2419,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>30897</v>
+        <v>18367</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2419,10 +2434,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I18" s="7">
-        <v>18367</v>
+        <v>30897</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2455,10 +2470,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>6306</v>
+        <v>3820</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2470,10 +2485,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>3820</v>
+        <v>6306</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2506,34 +2521,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>9036</v>
+        <v>1453</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I20" s="7">
-        <v>1453</v>
+        <v>9036</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -2542,13 +2557,13 @@
         <v>10490</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,34 +2572,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>168</v>
+      </c>
+      <c r="D21" s="7">
+        <v>111711</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>185</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>122787</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="7">
-        <v>168</v>
-      </c>
-      <c r="I21" s="7">
-        <v>111711</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
         <v>353</v>
@@ -2593,51 +2608,51 @@
         <v>234497</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>68</v>
+      </c>
+      <c r="D22" s="7">
+        <v>46217</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="7">
         <v>48</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>32055</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="J22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="7">
-        <v>46217</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M22" s="7">
         <v>116</v>
@@ -2646,13 +2661,13 @@
         <v>78272</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,34 +2676,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>119</v>
+      </c>
+      <c r="D23" s="7">
+        <v>80049</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="7">
         <v>108</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>72163</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="7">
-        <v>119</v>
-      </c>
-      <c r="I23" s="7">
-        <v>80049</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
         <v>227</v>
@@ -2697,13 +2712,13 @@
         <v>152211</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,34 +2727,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>49</v>
+      </c>
+      <c r="D24" s="7">
+        <v>34054</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="7">
         <v>94</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>61858</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="7">
-        <v>49</v>
-      </c>
-      <c r="I24" s="7">
-        <v>34054</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M24" s="7">
         <v>143</v>
@@ -2748,13 +2763,13 @@
         <v>95913</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,34 +2778,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7">
+        <v>9260</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="7">
         <v>15</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>10115</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="7">
-        <v>14</v>
-      </c>
-      <c r="I25" s="7">
-        <v>9260</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -2799,13 +2814,13 @@
         <v>19375</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,34 +2829,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>14</v>
+      </c>
+      <c r="D26" s="7">
+        <v>9354</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="7">
         <v>15</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>9907</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H26" s="7">
-        <v>14</v>
-      </c>
-      <c r="I26" s="7">
-        <v>9354</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M26" s="7">
         <v>29</v>
@@ -2850,13 +2865,13 @@
         <v>19261</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,34 +2880,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>264</v>
+      </c>
+      <c r="D27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>280</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>186097</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
-        <v>264</v>
-      </c>
-      <c r="I27" s="7">
-        <v>178935</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M27" s="7">
         <v>544</v>
@@ -2901,13 +2916,13 @@
         <v>365032</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,34 +2933,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>123</v>
+      </c>
+      <c r="D28" s="7">
+        <v>83310</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="7">
         <v>98</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>65117</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="7">
-        <v>123</v>
-      </c>
-      <c r="I28" s="7">
-        <v>83310</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M28" s="7">
         <v>221</v>
@@ -2954,13 +2969,13 @@
         <v>148427</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,34 +2984,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>196</v>
+      </c>
+      <c r="D29" s="7">
+        <v>131027</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="7">
         <v>173</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>115648</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H29" s="7">
-        <v>196</v>
-      </c>
-      <c r="I29" s="7">
-        <v>131027</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M29" s="7">
         <v>369</v>
@@ -3005,10 +3020,10 @@
         <v>246675</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>124</v>
@@ -3020,10 +3035,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D30" s="7">
-        <v>92755</v>
+        <v>52422</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>125</v>
@@ -3035,10 +3050,10 @@
         <v>127</v>
       </c>
       <c r="H30" s="7">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="I30" s="7">
-        <v>52422</v>
+        <v>92755</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>128</v>
@@ -3071,34 +3086,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>20</v>
+      </c>
+      <c r="D31" s="7">
+        <v>13080</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="7">
         <v>24</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>16420</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H31" s="7">
-        <v>20</v>
-      </c>
-      <c r="I31" s="7">
-        <v>13080</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>137</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="M31" s="7">
         <v>44</v>
@@ -3107,13 +3122,13 @@
         <v>29500</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,34 +3137,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>16</v>
+      </c>
+      <c r="D32" s="7">
+        <v>10808</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="7">
         <v>29</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>18943</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="7">
-        <v>16</v>
-      </c>
-      <c r="I32" s="7">
-        <v>10808</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M32" s="7">
         <v>45</v>
@@ -3158,13 +3173,13 @@
         <v>29751</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,34 +3188,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>432</v>
+      </c>
+      <c r="D33" s="7">
+        <v>290646</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>465</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>308884</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="7">
-        <v>432</v>
-      </c>
-      <c r="I33" s="7">
-        <v>290646</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M33" s="7">
         <v>897</v>
@@ -3209,18 +3224,18 @@
         <v>599530</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3240,7 +3255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441BD7E9-0344-42FD-A47D-DA5A24904597}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D1B0F7-F5BF-4726-B764-83D2FDC35022}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3257,7 +3272,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3902,34 +3917,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>95</v>
+      </c>
+      <c r="D16" s="7">
+        <v>65881</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="7">
         <v>81</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>57832</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" s="7">
-        <v>95</v>
-      </c>
-      <c r="I16" s="7">
-        <v>65881</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M16" s="7">
         <v>176</v>
@@ -3938,13 +3953,13 @@
         <v>123712</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,34 +3968,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>79</v>
+      </c>
+      <c r="D17" s="7">
+        <v>55791</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="7">
         <v>82</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>56424</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" s="7">
-        <v>79</v>
-      </c>
-      <c r="I17" s="7">
-        <v>55791</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M17" s="7">
         <v>161</v>
@@ -3989,13 +4004,13 @@
         <v>112215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,34 +4019,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7">
+        <v>20066</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" s="7">
         <v>35</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>24023</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H18" s="7">
-        <v>28</v>
-      </c>
-      <c r="I18" s="7">
-        <v>20066</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M18" s="7">
         <v>63</v>
@@ -4040,13 +4055,13 @@
         <v>44088</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,34 +4070,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6233</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H19" s="7">
         <v>14</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>9948</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6233</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -4091,13 +4106,13 @@
         <v>16181</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,34 +4121,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>6546</v>
+        <v>1368</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>187</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I20" s="7">
-        <v>1368</v>
+        <v>6546</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>188</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -4142,13 +4157,13 @@
         <v>7914</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,34 +4172,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>213</v>
+      </c>
+      <c r="D21" s="7">
+        <v>149338</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>222</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>154773</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="7">
-        <v>213</v>
-      </c>
-      <c r="I21" s="7">
-        <v>149338</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
         <v>435</v>
@@ -4193,51 +4208,51 @@
         <v>304111</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>75</v>
+      </c>
+      <c r="D22" s="7">
+        <v>52967</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H22" s="7">
         <v>71</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>49884</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H22" s="7">
-        <v>75</v>
-      </c>
-      <c r="I22" s="7">
-        <v>52967</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M22" s="7">
         <v>146</v>
@@ -4246,10 +4261,10 @@
         <v>102851</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>201</v>
@@ -4261,10 +4276,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D23" s="7">
-        <v>58246</v>
+        <v>57758</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>202</v>
@@ -4276,10 +4291,10 @@
         <v>204</v>
       </c>
       <c r="H23" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I23" s="7">
-        <v>57758</v>
+        <v>58246</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>205</v>
@@ -4312,10 +4327,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D24" s="7">
-        <v>42009</v>
+        <v>36279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>211</v>
@@ -4327,10 +4342,10 @@
         <v>213</v>
       </c>
       <c r="H24" s="7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I24" s="7">
-        <v>36279</v>
+        <v>42009</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>214</v>
@@ -4363,10 +4378,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D25" s="7">
-        <v>10224</v>
+        <v>7085</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>220</v>
@@ -4378,10 +4393,10 @@
         <v>222</v>
       </c>
       <c r="H25" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I25" s="7">
-        <v>7085</v>
+        <v>10224</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>223</v>
@@ -4414,34 +4429,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D26" s="7">
-        <v>9084</v>
+        <v>7511</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>228</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H26" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I26" s="7">
-        <v>7511</v>
+        <v>9084</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -4450,13 +4465,13 @@
         <v>16595</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,34 +4480,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>229</v>
+      </c>
+      <c r="D27" s="7">
+        <v>161600</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>249</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>169448</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
-        <v>229</v>
-      </c>
-      <c r="I27" s="7">
-        <v>161600</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M27" s="7">
         <v>478</v>
@@ -4501,13 +4516,13 @@
         <v>331049</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,34 +4533,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>170</v>
+      </c>
+      <c r="D28" s="7">
+        <v>118848</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="7">
         <v>152</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>107716</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H28" s="7">
-        <v>170</v>
-      </c>
-      <c r="I28" s="7">
-        <v>118848</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M28" s="7">
         <v>322</v>
@@ -4554,13 +4569,13 @@
         <v>226564</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,34 +4584,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>162</v>
+      </c>
+      <c r="D29" s="7">
+        <v>113549</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H29" s="7">
         <v>169</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>114671</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H29" s="7">
-        <v>162</v>
-      </c>
-      <c r="I29" s="7">
-        <v>113549</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M29" s="7">
         <v>331</v>
@@ -4605,13 +4620,13 @@
         <v>228219</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,34 +4635,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>78</v>
+      </c>
+      <c r="D30" s="7">
+        <v>56345</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H30" s="7">
         <v>97</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>66032</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H30" s="7">
-        <v>78</v>
-      </c>
-      <c r="I30" s="7">
-        <v>56345</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M30" s="7">
         <v>175</v>
@@ -4656,13 +4671,13 @@
         <v>122377</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,34 +4686,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>19</v>
+      </c>
+      <c r="D31" s="7">
+        <v>13318</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31" s="7">
         <v>29</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>20173</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H31" s="7">
-        <v>19</v>
-      </c>
-      <c r="I31" s="7">
-        <v>13318</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M31" s="7">
         <v>48</v>
@@ -4707,13 +4722,13 @@
         <v>33490</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,34 +4737,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>13</v>
+      </c>
+      <c r="D32" s="7">
+        <v>8879</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H32" s="7">
         <v>24</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>15631</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="7">
-        <v>13</v>
-      </c>
-      <c r="I32" s="7">
-        <v>8879</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M32" s="7">
         <v>37</v>
@@ -4758,13 +4773,13 @@
         <v>24509</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,34 +4788,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>442</v>
+      </c>
+      <c r="D33" s="7">
+        <v>310938</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>471</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>324222</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="7">
-        <v>442</v>
-      </c>
-      <c r="I33" s="7">
-        <v>310938</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M33" s="7">
         <v>913</v>
@@ -4809,18 +4824,18 @@
         <v>635160</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4840,7 +4855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00BCBD2-5474-4479-B5BD-0D51DC2CAA48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E219B28D-DAE0-42DE-8E3C-CE7DCB4497A0}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4857,7 +4872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5502,34 +5517,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>110</v>
+      </c>
+      <c r="D16" s="7">
+        <v>74703</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H16" s="7">
         <v>96</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>67685</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H16" s="7">
-        <v>110</v>
-      </c>
-      <c r="I16" s="7">
-        <v>74703</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>206</v>
@@ -5538,13 +5553,13 @@
         <v>142388</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,34 +5568,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>94</v>
+      </c>
+      <c r="D17" s="7">
+        <v>68269</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H17" s="7">
         <v>95</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>68745</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H17" s="7">
-        <v>94</v>
-      </c>
-      <c r="I17" s="7">
-        <v>68269</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>189</v>
@@ -5589,13 +5604,13 @@
         <v>137013</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,34 +5619,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>35</v>
+      </c>
+      <c r="D18" s="7">
+        <v>23888</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H18" s="7">
         <v>36</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>25419</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H18" s="7">
-        <v>35</v>
-      </c>
-      <c r="I18" s="7">
-        <v>23888</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M18" s="7">
         <v>71</v>
@@ -5640,13 +5655,13 @@
         <v>49307</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,34 +5670,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>11</v>
+      </c>
+      <c r="D19" s="7">
+        <v>7204</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H19" s="7">
         <v>15</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>11264</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H19" s="7">
-        <v>11</v>
-      </c>
-      <c r="I19" s="7">
-        <v>7204</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -5691,13 +5706,13 @@
         <v>18468</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>54</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,34 +5721,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7">
+        <v>6823</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H20" s="7">
         <v>6</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>4156</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H20" s="7">
-        <v>9</v>
-      </c>
-      <c r="I20" s="7">
-        <v>6823</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -5742,13 +5757,13 @@
         <v>10979</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,34 +5772,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>259</v>
+      </c>
+      <c r="D21" s="7">
+        <v>180887</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>248</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>177268</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="7">
-        <v>259</v>
-      </c>
-      <c r="I21" s="7">
-        <v>180887</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
         <v>507</v>
@@ -5793,51 +5808,51 @@
         <v>358155</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>68</v>
+      </c>
+      <c r="D22" s="7">
+        <v>48191</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H22" s="7">
         <v>50</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>37192</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H22" s="7">
-        <v>68</v>
-      </c>
-      <c r="I22" s="7">
-        <v>48191</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="M22" s="7">
         <v>118</v>
@@ -5846,13 +5861,13 @@
         <v>85384</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,34 +5876,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>89</v>
+      </c>
+      <c r="D23" s="7">
+        <v>63912</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H23" s="7">
         <v>98</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>73715</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="H23" s="7">
-        <v>89</v>
-      </c>
-      <c r="I23" s="7">
-        <v>63912</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="M23" s="7">
         <v>187</v>
@@ -5897,13 +5912,13 @@
         <v>137627</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,34 +5927,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D24" s="7">
+        <v>35488</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H24" s="7">
+        <v>63</v>
+      </c>
+      <c r="I24" s="7">
         <v>46098</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="H24" s="7">
-        <v>52</v>
-      </c>
-      <c r="I24" s="7">
-        <v>35488</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="M24" s="7">
         <v>115</v>
@@ -5948,13 +5963,13 @@
         <v>81586</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,34 +5978,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>16</v>
+      </c>
+      <c r="D25" s="7">
+        <v>11164</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H25" s="7">
         <v>10</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>6932</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="7">
-        <v>16</v>
-      </c>
-      <c r="I25" s="7">
-        <v>11164</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -5999,13 +6014,13 @@
         <v>18097</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,31 +6032,31 @@
         <v>9</v>
       </c>
       <c r="D26" s="7">
-        <v>6654</v>
+        <v>6051</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
       </c>
       <c r="I26" s="7">
-        <v>6051</v>
+        <v>6654</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>361</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>355</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -6050,13 +6065,13 @@
         <v>12706</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,34 +6080,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>230</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170592</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
-        <v>234</v>
-      </c>
-      <c r="I27" s="7">
-        <v>164807</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M27" s="7">
         <v>464</v>
@@ -6101,13 +6116,13 @@
         <v>335399</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,34 +6133,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>178</v>
+      </c>
+      <c r="D28" s="7">
+        <v>122894</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H28" s="7">
         <v>146</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>104877</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H28" s="7">
-        <v>178</v>
-      </c>
-      <c r="I28" s="7">
-        <v>122894</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="M28" s="7">
         <v>324</v>
@@ -6154,13 +6169,13 @@
         <v>227771</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>366</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,34 +6184,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>183</v>
+      </c>
+      <c r="D29" s="7">
+        <v>132181</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H29" s="7">
         <v>193</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>142460</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H29" s="7">
-        <v>183</v>
-      </c>
-      <c r="I29" s="7">
-        <v>132181</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="M29" s="7">
         <v>376</v>
@@ -6205,13 +6220,13 @@
         <v>274641</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>375</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,34 +6235,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>87</v>
+      </c>
+      <c r="D30" s="7">
+        <v>59376</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H30" s="7">
         <v>99</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>71517</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="H30" s="7">
-        <v>87</v>
-      </c>
-      <c r="I30" s="7">
-        <v>59376</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="M30" s="7">
         <v>186</v>
@@ -6256,13 +6271,13 @@
         <v>130892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,34 +6286,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>27</v>
+      </c>
+      <c r="D31" s="7">
+        <v>18369</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H31" s="7">
         <v>25</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>18196</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="H31" s="7">
-        <v>27</v>
-      </c>
-      <c r="I31" s="7">
-        <v>18369</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="K31" s="7" t="s">
-        <v>105</v>
+        <v>393</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="M31" s="7">
         <v>52</v>
@@ -6307,13 +6322,13 @@
         <v>36565</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,34 +6337,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>18</v>
+      </c>
+      <c r="D32" s="7">
+        <v>12874</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H32" s="7">
         <v>15</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>10810</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="H32" s="7">
-        <v>18</v>
-      </c>
-      <c r="I32" s="7">
-        <v>12874</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>144</v>
+        <v>399</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>46</v>
+        <v>360</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>394</v>
+        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>33</v>
@@ -6358,13 +6373,13 @@
         <v>23685</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,34 +6388,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>493</v>
+      </c>
+      <c r="D33" s="7">
+        <v>345694</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>478</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>347860</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="7">
-        <v>493</v>
-      </c>
-      <c r="I33" s="7">
-        <v>345694</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M33" s="7">
         <v>971</v>
@@ -6409,18 +6424,18 @@
         <v>693554</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
